--- a/hcnc_init/src/main/resources/static/templates/ExcelUpload_Temp.xlsx
+++ b/hcnc_init/src/main/resources/static/templates/ExcelUpload_Temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Project\HCNC\(에이치씨엔씨) 프리랜서 관리 시스템\00 Project\hcnc_hms\hcnc_init\src\main\resources\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB85E378-80B3-48D1-8008-3B85ECB37767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973B11EA-799B-4D3D-9585-B68940A9E474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트" sheetId="1" r:id="rId1"/>
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계약단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -385,11 +381,44 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기술스택</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>(코드 참조)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>당사 여부</t>
+      <t>투입률</t>
     </r>
     <r>
       <rPr>
@@ -409,8 +438,12 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>(Y/N)</t>
-    </r>
+      <t>(0~100)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,11 +451,11 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>역할</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>당사 여부</t>
     </r>
     <r>
       <rPr>
@@ -442,7 +475,7 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>(코드 참조)</t>
+      <t>(Y/N)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,40 +488,7 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>기술스택</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>(코드 참조)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>투입률</t>
+      <t>역할</t>
     </r>
     <r>
       <rPr>
@@ -508,12 +508,24 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>(0~100)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순번</t>
+      <t>(코드 참조)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">계약단가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>(원 단위)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,6 +533,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -697,6 +712,14 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -986,7 +1009,7 @@
     <col min="3" max="4" width="12.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="27" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="40" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
@@ -996,34 +1019,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="E1" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>92</v>
+      <c r="G1" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>10</v>
@@ -1069,7 +1092,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1082,7 +1105,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1095,7 +1118,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1108,7 +1131,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1121,7 +1144,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1134,7 +1157,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1147,7 +1170,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1160,7 +1183,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
